--- a/Output/Drive/15. Educacion.xlsx
+++ b/Output/Drive/15. Educacion.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
+    <t xml:space="preserve">Municipio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Escuelas Total</t>
   </si>
   <si>
@@ -71,256 +74,547 @@
     <t xml:space="preserve">Docentes Educación Superior</t>
   </si>
   <si>
+    <t xml:space="preserve">Grado promedio de escolaridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grado promedio de escolaridad Equivalencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Población de 15 años y más</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poblacion Analfabeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desayunos Integrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniformes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becas</t>
+  </si>
+  <si>
     <t xml:space="preserve">13001</t>
   </si>
   <si>
+    <t xml:space="preserve">Acatlán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1er año de Secundaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">13002</t>
   </si>
   <si>
+    <t xml:space="preserve">Acaxochitlán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6to grado de Primaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">13003</t>
   </si>
   <si>
+    <t xml:space="preserve">Actopan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3er año de Secundaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">13004</t>
   </si>
   <si>
+    <t xml:space="preserve">Agua Blanca de Iturbide</t>
+  </si>
+  <si>
     <t xml:space="preserve">13005</t>
   </si>
   <si>
+    <t xml:space="preserve">Ajacuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2do año de Secundaria</t>
+  </si>
+  <si>
     <t xml:space="preserve">13006</t>
   </si>
   <si>
+    <t xml:space="preserve">Alfajayucan</t>
+  </si>
+  <si>
     <t xml:space="preserve">13007</t>
   </si>
   <si>
+    <t xml:space="preserve">Almoloya</t>
+  </si>
+  <si>
     <t xml:space="preserve">13008</t>
   </si>
   <si>
+    <t xml:space="preserve">Apan</t>
+  </si>
+  <si>
     <t xml:space="preserve">13009</t>
   </si>
   <si>
+    <t xml:space="preserve">El Arenal</t>
+  </si>
+  <si>
     <t xml:space="preserve">13010</t>
   </si>
   <si>
+    <t xml:space="preserve">Atitalaquia</t>
+  </si>
+  <si>
     <t xml:space="preserve">13011</t>
   </si>
   <si>
+    <t xml:space="preserve">Atlapexco</t>
+  </si>
+  <si>
     <t xml:space="preserve">13012</t>
   </si>
   <si>
+    <t xml:space="preserve">Atotonilco el Grande</t>
+  </si>
+  <si>
     <t xml:space="preserve">13013</t>
   </si>
   <si>
+    <t xml:space="preserve">Atotonilco de Tula</t>
+  </si>
+  <si>
     <t xml:space="preserve">13014</t>
   </si>
   <si>
+    <t xml:space="preserve">Calnali</t>
+  </si>
+  <si>
     <t xml:space="preserve">13015</t>
   </si>
   <si>
+    <t xml:space="preserve">Cardonal</t>
+  </si>
+  <si>
     <t xml:space="preserve">13016</t>
   </si>
   <si>
+    <t xml:space="preserve">Cuautepec de Hinojosa</t>
+  </si>
+  <si>
     <t xml:space="preserve">13017</t>
   </si>
   <si>
+    <t xml:space="preserve">Chapantongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">13018</t>
   </si>
   <si>
+    <t xml:space="preserve">Chapulhuacán</t>
+  </si>
+  <si>
     <t xml:space="preserve">13019</t>
   </si>
   <si>
+    <t xml:space="preserve">Chilcuautla</t>
+  </si>
+  <si>
     <t xml:space="preserve">13020</t>
   </si>
   <si>
+    <t xml:space="preserve">Eloxochitlán</t>
+  </si>
+  <si>
     <t xml:space="preserve">13021</t>
   </si>
   <si>
+    <t xml:space="preserve">Emiliano Zapata</t>
+  </si>
+  <si>
     <t xml:space="preserve">13022</t>
   </si>
   <si>
+    <t xml:space="preserve">Epazoyucan</t>
+  </si>
+  <si>
     <t xml:space="preserve">13023</t>
   </si>
   <si>
+    <t xml:space="preserve">Francisco I. Madero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1er año de Preparatoria</t>
+  </si>
+  <si>
     <t xml:space="preserve">13024</t>
   </si>
   <si>
+    <t xml:space="preserve">Huasca de Ocampo</t>
+  </si>
+  <si>
     <t xml:space="preserve">13025</t>
   </si>
   <si>
+    <t xml:space="preserve">Huautla</t>
+  </si>
+  <si>
     <t xml:space="preserve">13026</t>
   </si>
   <si>
+    <t xml:space="preserve">Huazalingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">13027</t>
   </si>
   <si>
+    <t xml:space="preserve">Huehuetla</t>
+  </si>
+  <si>
     <t xml:space="preserve">13028</t>
   </si>
   <si>
+    <t xml:space="preserve">Huejutla de Reyes</t>
+  </si>
+  <si>
     <t xml:space="preserve">13029</t>
   </si>
   <si>
+    <t xml:space="preserve">Huichapan</t>
+  </si>
+  <si>
     <t xml:space="preserve">13030</t>
   </si>
   <si>
+    <t xml:space="preserve">Ixmiquilpan</t>
+  </si>
+  <si>
     <t xml:space="preserve">13031</t>
   </si>
   <si>
+    <t xml:space="preserve">Jacala de Ledezma</t>
+  </si>
+  <si>
     <t xml:space="preserve">13032</t>
   </si>
   <si>
+    <t xml:space="preserve">Jaltocán</t>
+  </si>
+  <si>
     <t xml:space="preserve">13033</t>
   </si>
   <si>
+    <t xml:space="preserve">Juárez Hidalgo</t>
+  </si>
+  <si>
     <t xml:space="preserve">13034</t>
   </si>
   <si>
+    <t xml:space="preserve">Lolotla</t>
+  </si>
+  <si>
     <t xml:space="preserve">13035</t>
   </si>
   <si>
+    <t xml:space="preserve">Metepec</t>
+  </si>
+  <si>
     <t xml:space="preserve">13036</t>
   </si>
   <si>
+    <t xml:space="preserve">San Agustín Metzquititlán</t>
+  </si>
+  <si>
     <t xml:space="preserve">13037</t>
   </si>
   <si>
+    <t xml:space="preserve">Metztitlán</t>
+  </si>
+  <si>
     <t xml:space="preserve">13038</t>
   </si>
   <si>
+    <t xml:space="preserve">Mineral del Chico</t>
+  </si>
+  <si>
     <t xml:space="preserve">13039</t>
   </si>
   <si>
+    <t xml:space="preserve">Mineral del Monte</t>
+  </si>
+  <si>
     <t xml:space="preserve">13040</t>
   </si>
   <si>
+    <t xml:space="preserve">La Misión</t>
+  </si>
+  <si>
     <t xml:space="preserve">13041</t>
   </si>
   <si>
+    <t xml:space="preserve">Mixquiahuala de Juárez</t>
+  </si>
+  <si>
     <t xml:space="preserve">13042</t>
   </si>
   <si>
+    <t xml:space="preserve">Molango de Escamilla</t>
+  </si>
+  <si>
     <t xml:space="preserve">13043</t>
   </si>
   <si>
+    <t xml:space="preserve">Nicolás Flores</t>
+  </si>
+  <si>
     <t xml:space="preserve">13044</t>
   </si>
   <si>
+    <t xml:space="preserve">Nopala de Villagrán</t>
+  </si>
+  <si>
     <t xml:space="preserve">13045</t>
   </si>
   <si>
+    <t xml:space="preserve">Omitlán de Juárez</t>
+  </si>
+  <si>
     <t xml:space="preserve">13046</t>
   </si>
   <si>
+    <t xml:space="preserve">San Felipe Orizatlán</t>
+  </si>
+  <si>
     <t xml:space="preserve">13047</t>
   </si>
   <si>
+    <t xml:space="preserve">Pacula</t>
+  </si>
+  <si>
     <t xml:space="preserve">13048</t>
   </si>
   <si>
+    <t xml:space="preserve">Pachuca de Soto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2do año de Preparatoria</t>
+  </si>
+  <si>
     <t xml:space="preserve">13049</t>
   </si>
   <si>
+    <t xml:space="preserve">Pisaflores</t>
+  </si>
+  <si>
     <t xml:space="preserve">13050</t>
   </si>
   <si>
+    <t xml:space="preserve">Progreso de Obregón</t>
+  </si>
+  <si>
     <t xml:space="preserve">13051</t>
   </si>
   <si>
+    <t xml:space="preserve">Mineral de la Reforma</t>
+  </si>
+  <si>
     <t xml:space="preserve">13052</t>
   </si>
   <si>
+    <t xml:space="preserve">San Agustín Tlaxiaca</t>
+  </si>
+  <si>
     <t xml:space="preserve">13053</t>
   </si>
   <si>
+    <t xml:space="preserve">San Bartolo Tutotepec</t>
+  </si>
+  <si>
     <t xml:space="preserve">13054</t>
   </si>
   <si>
+    <t xml:space="preserve">San Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">13055</t>
   </si>
   <si>
+    <t xml:space="preserve">Santiago de Anaya</t>
+  </si>
+  <si>
     <t xml:space="preserve">13056</t>
   </si>
   <si>
+    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">13057</t>
   </si>
   <si>
+    <t xml:space="preserve">Singuilucan</t>
+  </si>
+  <si>
     <t xml:space="preserve">13058</t>
   </si>
   <si>
+    <t xml:space="preserve">Tasquillo</t>
+  </si>
+  <si>
     <t xml:space="preserve">13059</t>
   </si>
   <si>
+    <t xml:space="preserve">Tecozautla</t>
+  </si>
+  <si>
     <t xml:space="preserve">13060</t>
   </si>
   <si>
+    <t xml:space="preserve">Tenango de Doria</t>
+  </si>
+  <si>
     <t xml:space="preserve">13061</t>
   </si>
   <si>
+    <t xml:space="preserve">Tepeapulco</t>
+  </si>
+  <si>
     <t xml:space="preserve">13062</t>
   </si>
   <si>
+    <t xml:space="preserve">Tepehuacán de Guerrero</t>
+  </si>
+  <si>
     <t xml:space="preserve">13063</t>
   </si>
   <si>
+    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
+  </si>
+  <si>
     <t xml:space="preserve">13064</t>
   </si>
   <si>
+    <t xml:space="preserve">Tepetitlán</t>
+  </si>
+  <si>
     <t xml:space="preserve">13065</t>
   </si>
   <si>
+    <t xml:space="preserve">Tetepango</t>
+  </si>
+  <si>
     <t xml:space="preserve">13066</t>
   </si>
   <si>
+    <t xml:space="preserve">Villa de Tezontepec</t>
+  </si>
+  <si>
     <t xml:space="preserve">13067</t>
   </si>
   <si>
+    <t xml:space="preserve">Tezontepec de Aldama</t>
+  </si>
+  <si>
     <t xml:space="preserve">13068</t>
   </si>
   <si>
+    <t xml:space="preserve">Tianguistengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">13069</t>
   </si>
   <si>
+    <t xml:space="preserve">Tizayuca</t>
+  </si>
+  <si>
     <t xml:space="preserve">13070</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlahuelilpan</t>
+  </si>
+  <si>
     <t xml:space="preserve">13071</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlahuiltepa</t>
+  </si>
+  <si>
     <t xml:space="preserve">13072</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlanalapa</t>
+  </si>
+  <si>
     <t xml:space="preserve">13073</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlanchinol</t>
+  </si>
+  <si>
     <t xml:space="preserve">13074</t>
   </si>
   <si>
+    <t xml:space="preserve">Tlaxcoapan</t>
+  </si>
+  <si>
     <t xml:space="preserve">13075</t>
   </si>
   <si>
+    <t xml:space="preserve">Tolcayuca</t>
+  </si>
+  <si>
     <t xml:space="preserve">13076</t>
   </si>
   <si>
+    <t xml:space="preserve">Tula de Allende</t>
+  </si>
+  <si>
     <t xml:space="preserve">13077</t>
   </si>
   <si>
+    <t xml:space="preserve">Tulancingo de Bravo</t>
+  </si>
+  <si>
     <t xml:space="preserve">13078</t>
   </si>
   <si>
+    <t xml:space="preserve">Xochiatipan</t>
+  </si>
+  <si>
     <t xml:space="preserve">13079</t>
   </si>
   <si>
+    <t xml:space="preserve">Xochicoatlán</t>
+  </si>
+  <si>
     <t xml:space="preserve">13080</t>
   </si>
   <si>
+    <t xml:space="preserve">Yahualica</t>
+  </si>
+  <si>
     <t xml:space="preserve">13081</t>
   </si>
   <si>
+    <t xml:space="preserve">Zacualtipán de Ángeles</t>
+  </si>
+  <si>
     <t xml:space="preserve">13082</t>
   </si>
   <si>
+    <t xml:space="preserve">Zapotlán de Juárez</t>
+  </si>
+  <si>
     <t xml:space="preserve">13083</t>
   </si>
   <si>
+    <t xml:space="preserve">Zempoala</t>
+  </si>
+  <si>
     <t xml:space="preserve">13084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimapán</t>
   </si>
 </sst>
 </file>
@@ -710,1904 +1004,2696 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
         <v>86</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>33</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>34</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>15</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>5062</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>706</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>2570</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1255</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>328</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>269</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>48</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>119</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>64</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>20</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="n">
+        <v>15766</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1755</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1477457</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4968</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>541.427660080304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="n">
         <v>159</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>59</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>61</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>29</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>12614</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1624</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>6627</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2839</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1262</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>679</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>106</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>345</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>136</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>55</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" t="n">
+        <v>30649</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4993</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3534932</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12443</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6306.54334847845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="n">
         <v>144</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>49</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>48</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>26</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>12</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>25233</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1771</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>6892</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>4097</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>4404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1767</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>1103</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>122</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>356</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>229</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>186</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>109</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" t="n">
+        <v>45450</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1745</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1151097</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12243</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7190.20006075655</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" t="n">
         <v>22</v>
       </c>
-      <c r="B5" t="n">
-        <v>56</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4433</v>
+      </c>
+      <c r="J5" t="n">
+        <v>336</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1312</v>
+      </c>
+      <c r="L5" t="n">
+        <v>587</v>
+      </c>
+      <c r="M5" t="n">
+        <v>375</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>192</v>
+      </c>
+      <c r="P5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>39</v>
+      </c>
+      <c r="S5" t="n">
         <v>22</v>
       </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4433</v>
-      </c>
-      <c r="I5" t="n">
-        <v>336</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1312</v>
-      </c>
-      <c r="K5" t="n">
-        <v>587</v>
-      </c>
-      <c r="L5" t="n">
-        <v>375</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>192</v>
-      </c>
-      <c r="O5" t="n">
-        <v>30</v>
-      </c>
-      <c r="P5" t="n">
-        <v>73</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>39</v>
-      </c>
-      <c r="R5" t="n">
-        <v>22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7386</v>
+      </c>
+      <c r="X5" t="n">
+        <v>867</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>751517</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2664</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1276.10249366019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>14</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>6743</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>472</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>1801</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1124</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>196</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>218</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>29</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>95</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>48</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>11</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="V6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" t="n">
+        <v>14311</v>
+      </c>
+      <c r="X6" t="n">
+        <v>798</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>462723</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3801</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1181.82210217667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="n">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="n">
         <v>81</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>33</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>12</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>4799</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>514</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>1875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>1139</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>1161</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>298</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>45</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>125</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>62</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>58</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="V7" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" t="n">
+        <v>14145</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1185</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1894531</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>4264</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1679.42620720626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="n">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="n">
         <v>41</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>15</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>2772</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>329</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>1262</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>647</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>372</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>147</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>23</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>67</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>30</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>15</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9180</v>
+      </c>
+      <c r="X8" t="n">
+        <v>604</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>416966</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2688</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>821.036374683009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="n">
         <v>99</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>35</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>32</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>18</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>8</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>16639</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1248</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>4467</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2270</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>1673</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>2859</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>778</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>82</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>212</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>157</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>90</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>174</v>
+      </c>
+      <c r="U9" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" t="n">
+        <v>35154</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1762</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1156954</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8667</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7210.79087547982</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="n">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="n">
         <v>45</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>19</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>3592</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>442</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>1838</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>1030</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>194</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>204</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>33</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>97</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>56</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>6</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9</v>
+      </c>
+      <c r="V10" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" t="n">
+        <v>14594</v>
+      </c>
+      <c r="X10" t="n">
+        <v>638</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>811988</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3840</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>693.040416314455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
         <v>46</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>16</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>13</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>6</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>11675</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>810</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>2769</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>1555</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>2037</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>880</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>424</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>51</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>125</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>84</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>83</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>32</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="V11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" t="n">
+        <v>24062</v>
+      </c>
+      <c r="X11" t="n">
+        <v>649</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>477898</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>5197</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3093.42444339387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="n">
+        <v>88</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7831</v>
+      </c>
+      <c r="J12" t="n">
+        <v>751</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1944</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1247</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1367</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>358</v>
+      </c>
+      <c r="P12" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>149</v>
+      </c>
+      <c r="R12" t="n">
+        <v>64</v>
+      </c>
+      <c r="S12" t="n">
+        <v>48</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="V12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="n">
-        <v>88</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7831</v>
-      </c>
-      <c r="I12" t="n">
-        <v>751</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1944</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1247</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1367</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>358</v>
-      </c>
-      <c r="O12" t="n">
-        <v>56</v>
-      </c>
-      <c r="P12" t="n">
-        <v>149</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>64</v>
-      </c>
-      <c r="R12" t="n">
-        <v>48</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
+      <c r="W12" t="n">
+        <v>14568</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2740</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1980765</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>5757</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3087.11922812764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="n">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="n">
         <v>122</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>42</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>45</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>25</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>7</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>6849</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>863</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>3345</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>1885</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>552</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>55</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>494</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>70</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>188</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>146</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>43</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>20</v>
+      </c>
+      <c r="U13" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="V13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" t="n">
+        <v>22097</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1845</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1664179</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6498</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1930.2281012257</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="n">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="n">
         <v>97</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>38</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>35</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>15</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>6</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>15953</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>2005</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>7114</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>3683</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>1538</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>338</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>753</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>117</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>308</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>205</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>69</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>21</v>
+      </c>
+      <c r="U14" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="V14" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" t="n">
+        <v>45138</v>
+      </c>
+      <c r="X14" t="n">
+        <v>948</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>943043</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13159</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2326.75453032544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="n">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="n">
         <v>72</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>25</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>26</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>15</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>3894</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>540</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>1549</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>892</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>742</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>260</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>34</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>116</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>59</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>31</v>
       </c>
-      <c r="S15" t="n">
-        <v>0</v>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="V15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11964</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2046</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1029868</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>4356</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2899.00631339814</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="n">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="n">
         <v>109</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>39</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>46</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>16</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>6</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>4350</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>556</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>1791</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>991</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>851</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>353</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>55</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>155</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>72</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>48</v>
       </c>
-      <c r="S16" t="n">
-        <v>0</v>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="V16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" t="n">
+        <v>14302</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1433</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2052736</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>4703</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2400.38143226965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="n">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="n">
         <v>171</v>
-      </c>
-      <c r="C17" t="n">
-        <v>66</v>
       </c>
       <c r="D17" t="n">
         <v>66</v>
       </c>
       <c r="E17" t="n">
+        <v>66</v>
+      </c>
+      <c r="F17" t="n">
         <v>30</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>6</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>18334</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1775</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>6482</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>2901</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>1482</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>733</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>112</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>308</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>162</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>65</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="V17" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" t="n">
+        <v>43584</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3562</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2249900</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12391</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5355.69440775571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="n">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="n">
         <v>49</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>19</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>9</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>2625</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>323</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>1164</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>655</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>279</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>74</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>173</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>26</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>64</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>36</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>17</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>12</v>
+      </c>
+      <c r="U18" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="V18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9639</v>
+      </c>
+      <c r="X18" t="n">
+        <v>775</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>486926</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2409</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>988.166023879966</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="n">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="n">
         <v>160</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>58</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>61</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>31</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>6</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>5954</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>783</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>2486</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>1291</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>1008</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>236</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>398</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>65</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>161</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>85</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>43</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>24</v>
+      </c>
+      <c r="U19" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="V19" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" t="n">
+        <v>16072</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2177</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1725331</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>5269</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3638.30716519829</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="n">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="n">
         <v>60</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>26</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>22</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>7</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>4348</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>597</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>1868</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>1133</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>648</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>267</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>47</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>117</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>59</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>35</v>
       </c>
-      <c r="S20" t="n">
-        <v>0</v>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="V20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" t="n">
+        <v>13921</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1042</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>713946</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>4506</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2269.29769389265</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="n">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="n">
         <v>21</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>4</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>8</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>6</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>3</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>512</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>44</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>221</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>130</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>95</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>39</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>3</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>16</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>10</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>9</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V21" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2015</v>
+      </c>
+      <c r="X21" t="n">
+        <v>235</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>117610</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>545</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>252.560782967033</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="n">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="n">
         <v>19</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>8</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>7</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>2891</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>417</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>1319</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>399</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>143</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>25</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>66</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>17</v>
       </c>
-      <c r="S22" t="n">
-        <v>0</v>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="V22" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11422</v>
+      </c>
+      <c r="X22" t="n">
+        <v>399</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>254114</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3075</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>545.383770076078</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="n">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="n">
         <v>39</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>18</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>15</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>2929</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>421</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>1483</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>670</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>319</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>156</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>33</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>72</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>33</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>13</v>
       </c>
-      <c r="S23" t="n">
-        <v>0</v>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>9.12</v>
+      </c>
+      <c r="V23" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" t="n">
+        <v>12411</v>
+      </c>
+      <c r="X23" t="n">
+        <v>507</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>416090</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3187</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1037.56539254015</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="n">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="n">
         <v>77</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>31</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>29</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>8</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>5</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>11008</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>915</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>3369</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>1889</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>1674</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>2935</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>606</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>66</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>192</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>120</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>65</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>138</v>
+      </c>
+      <c r="U24" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="V24" t="s">
+        <v>77</v>
+      </c>
+      <c r="W24" t="n">
+        <v>27591</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1280</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2108357</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>7981</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6505.2380598947</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="n">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="n">
         <v>86</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>33</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>34</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>13</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>5</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>4383</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>551</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>2182</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>1059</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>407</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>267</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>47</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>120</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>64</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>20</v>
       </c>
-      <c r="S25" t="n">
-        <v>0</v>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="V25" t="s">
+        <v>29</v>
+      </c>
+      <c r="W25" t="n">
+        <v>12488</v>
+      </c>
+      <c r="X25" t="n">
+        <v>927</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>835911</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>4265</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1346.25929839391</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="n">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="n">
         <v>129</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>49</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>55</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>19</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>5</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>5245</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>875</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>1935</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>1236</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>1038</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>366</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>63</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>154</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>87</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>40</v>
       </c>
-      <c r="S26" t="n">
-        <v>0</v>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="V26" t="s">
+        <v>29</v>
+      </c>
+      <c r="W26" t="n">
+        <v>15425</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2569</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1649184</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5469</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3300.54341451817</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="n">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="n">
         <v>68</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>25</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>26</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>13</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>3</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>3074</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>528</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>1414</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>641</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>438</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>218</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>42</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>108</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>43</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>20</v>
       </c>
-      <c r="S27" t="n">
-        <v>0</v>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="V27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8980</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1609</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1404579</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>3485</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2007.97195953085</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="n">
+        <v>145</v>
+      </c>
+      <c r="D28" t="n">
         <v>45</v>
       </c>
-      <c r="B28" t="n">
-        <v>145</v>
-      </c>
-      <c r="C28" t="n">
-        <v>45</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>51</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>28</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>9</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>6023</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>943</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>2365</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>1233</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>1038</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>5</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>447</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>71</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>191</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>91</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>51</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="V28" t="s">
+        <v>32</v>
+      </c>
+      <c r="W28" t="n">
+        <v>16318</v>
+      </c>
+      <c r="X28" t="n">
+        <v>4257</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1013454</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5724</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>4242.41374604054</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="n">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="n">
         <v>455</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>178</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>181</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>47</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>17</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>10</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>50787</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>5293</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>14462</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>8115</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>7694</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>9218</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>2497</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>339</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>847</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>462</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>279</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>400</v>
+      </c>
+      <c r="U29" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="V29" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" t="n">
+        <v>89154</v>
+      </c>
+      <c r="X29" t="n">
+        <v>14527</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>6147396</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>35449</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>31307.2688107932</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="n">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="n">
         <v>125</v>
-      </c>
-      <c r="C30" t="n">
-        <v>44</v>
       </c>
       <c r="D30" t="n">
         <v>44</v>
       </c>
       <c r="E30" t="n">
+        <v>44</v>
+      </c>
+      <c r="F30" t="n">
         <v>23</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>9</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>19550</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>1373</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>4855</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>2726</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>2371</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>2230</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>763</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>86</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>246</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>181</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>90</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>99</v>
+      </c>
+      <c r="U30" t="n">
+        <v>8.79</v>
+      </c>
+      <c r="V30" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" t="n">
+        <v>35326</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1732</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1737483</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>11555</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6598.16859111971</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="n">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="n">
         <v>301</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>114</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>113</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>38</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>15</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>3</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>34829</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>3084</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>10485</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>5599</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>5875</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>3051</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>1880</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>231</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>648</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>359</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>266</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>252</v>
+      </c>
+      <c r="U31" t="n">
+        <v>9.36</v>
+      </c>
+      <c r="V31" t="s">
+        <v>35</v>
+      </c>
+      <c r="W31" t="n">
+        <v>72117</v>
+      </c>
+      <c r="X31" t="n">
+        <v>4524</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>4588883</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>21339</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>12751.6287509955</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="n">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="n">
         <v>68</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>22</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>26</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>15</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>3974</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>315</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>1195</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>685</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>439</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>104</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>208</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>26</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>78</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>55</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>30</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>3</v>
+      </c>
+      <c r="U32" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="V32" t="s">
+        <v>29</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9264</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1054</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>435031</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2438</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1220.11597380654</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="n">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="n">
         <v>46</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>19</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>18</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>2674</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>400</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>1061</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>532</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>588</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>173</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>33</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>76</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>27</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>21</v>
       </c>
-      <c r="S33" t="n">
-        <v>0</v>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="V33" t="s">
+        <v>29</v>
+      </c>
+      <c r="W33" t="n">
+        <v>7662</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1747</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>620795</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2854</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1575.55787721894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="n">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="n">
         <v>15</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
@@ -2616,3055 +3702,4303 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>610</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>60</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>264</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>159</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>117</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>46</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>5</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>18</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>11</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>10</v>
       </c>
-      <c r="S34" t="n">
-        <v>0</v>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="V34" t="s">
+        <v>29</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2194</v>
+      </c>
+      <c r="X34" t="n">
+        <v>267</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>250185</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>741</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>355.119545118343</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="n">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="n">
         <v>73</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>23</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>24</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>17</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>6</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>2563</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>366</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>965</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>608</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>524</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>194</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>31</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>76</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>49</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>27</v>
       </c>
-      <c r="S35" t="n">
-        <v>0</v>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V35" t="s">
+        <v>29</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6733</v>
+      </c>
+      <c r="X35" t="n">
+        <v>935</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>961897</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1466.27748573542</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" t="n">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="n">
         <v>54</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>24</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>19</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>8</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>3686</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>453</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>1390</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>903</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>740</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>211</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>38</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>76</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>44</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>27</v>
       </c>
-      <c r="S36" t="n">
-        <v>0</v>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="V36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W36" t="n">
+        <v>9235</v>
+      </c>
+      <c r="X36" t="n">
+        <v>660</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>670731</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2785</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1252.00056794167</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="n">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="n">
         <v>45</v>
-      </c>
-      <c r="C37" t="n">
-        <v>16</v>
       </c>
       <c r="D37" t="n">
         <v>16</v>
       </c>
       <c r="E37" t="n">
+        <v>16</v>
+      </c>
+      <c r="F37" t="n">
         <v>9</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>4</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1873</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>237</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>810</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>468</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>296</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>128</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>19</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>49</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>35</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>16</v>
       </c>
-      <c r="S37" t="n">
-        <v>0</v>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="V37" t="s">
+        <v>40</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7309</v>
+      </c>
+      <c r="X37" t="n">
+        <v>403</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>660501</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2029</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>803.922892011834</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="n">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="n">
         <v>137</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>50</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>56</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>24</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>5</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>6019</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>586</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>1995</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>1517</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>729</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>348</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>354</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>51</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>145</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>88</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>34</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>16</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="V38" t="s">
+        <v>29</v>
+      </c>
+      <c r="W38" t="n">
+        <v>15888</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1670</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1636884</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5045</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2798.1570556847</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="n">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="n">
         <v>43</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>17</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>15</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>8</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>2517</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>250</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>924</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>521</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>803</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>141</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>20</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>54</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>36</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>29</v>
       </c>
-      <c r="S39" t="n">
-        <v>0</v>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="V39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39" t="n">
+        <v>6459</v>
+      </c>
+      <c r="X39" t="n">
+        <v>559</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>235231</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2309</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1273.90729342773</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" t="n">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="n">
         <v>25</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>9</v>
       </c>
       <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="n">
         <v>5</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>2926</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>288</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>1186</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>631</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>39</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>745</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>239</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>18</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>63</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>55</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>10</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>84</v>
+      </c>
+      <c r="U40" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="V40" t="s">
+        <v>35</v>
+      </c>
+      <c r="W40" t="n">
+        <v>11031</v>
+      </c>
+      <c r="X40" t="n">
+        <v>338</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>746535</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2786</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>519.306662087912</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" t="n">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="n">
         <v>101</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>39</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>41</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>18</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>3</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>1975</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>203</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>990</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>458</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>270</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>189</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>31</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>87</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>37</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>15</v>
       </c>
-      <c r="S41" t="n">
-        <v>0</v>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="V41" t="s">
+        <v>32</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7220</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1392</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>802973</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1964</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>943.632964391378</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="n">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="n">
         <v>76</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>26</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>25</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>15</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>6</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>17818</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>1095</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>3978</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>2140</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>1837</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>2611</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>757</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>72</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>216</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>149</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>86</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>153</v>
+      </c>
+      <c r="U42" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="V42" t="s">
+        <v>35</v>
+      </c>
+      <c r="W42" t="n">
+        <v>35684</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1333</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1105584</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>8147</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6125.51256154068</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" t="n">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="n">
         <v>61</v>
-      </c>
-      <c r="C43" t="n">
-        <v>22</v>
       </c>
       <c r="D43" t="n">
         <v>22</v>
       </c>
       <c r="E43" t="n">
+        <v>22</v>
+      </c>
+      <c r="F43" t="n">
         <v>11</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>4</v>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>2808</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>456</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>1041</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>581</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>583</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>207</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>31</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>81</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>40</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>37</v>
       </c>
-      <c r="S43" t="n">
-        <v>0</v>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="V43" t="s">
+        <v>40</v>
+      </c>
+      <c r="W43" t="n">
+        <v>8519</v>
+      </c>
+      <c r="X43" t="n">
+        <v>789</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>757609</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2485</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1392.80593565089</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="n">
+        <v>74</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>31</v>
+      </c>
+      <c r="F44" t="n">
+        <v>12</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1286</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>574</v>
+      </c>
+      <c r="L44" t="n">
+        <v>290</v>
+      </c>
+      <c r="M44" t="n">
+        <v>169</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>145</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>61</v>
       </c>
-      <c r="B44" t="n">
-        <v>74</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>31</v>
-      </c>
-      <c r="E44" t="n">
-        <v>12</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1286</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>574</v>
-      </c>
-      <c r="K44" t="n">
-        <v>290</v>
-      </c>
-      <c r="L44" t="n">
-        <v>169</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>145</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>34</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>15</v>
       </c>
-      <c r="S44" t="n">
-        <v>0</v>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="V44" t="s">
+        <v>29</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4514</v>
+      </c>
+      <c r="X44" t="n">
+        <v>471</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>563817</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1310</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>824.318786982249</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" t="n">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="n">
         <v>68</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>26</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>24</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>10</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>6</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>3599</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>409</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>1324</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>974</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>690</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>128</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>216</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>30</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>77</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>54</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>33</v>
       </c>
-      <c r="S45" t="n">
+      <c r="T45" t="n">
         <v>15</v>
+      </c>
+      <c r="U45" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="V45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W45" t="n">
+        <v>12878</v>
+      </c>
+      <c r="X45" t="n">
+        <v>926</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>920801</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>3460</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1769.94164729501</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" t="n">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="n">
         <v>30</v>
-      </c>
-      <c r="C46" t="n">
-        <v>11</v>
       </c>
       <c r="D46" t="n">
         <v>11</v>
       </c>
       <c r="E46" t="n">
+        <v>11</v>
+      </c>
+      <c r="F46" t="n">
         <v>5</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>4824</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>199</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>861</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>540</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>1351</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>152</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>14</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>55</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>25</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>33</v>
       </c>
-      <c r="S46" t="n">
-        <v>0</v>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="V46" t="s">
+        <v>40</v>
+      </c>
+      <c r="W46" t="n">
+        <v>6814</v>
+      </c>
+      <c r="X46" t="n">
+        <v>422</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>416291</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2928</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1708.23909023669</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" t="n">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="n">
         <v>228</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>77</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>96</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>30</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>7</v>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>9839</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>1742</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>4252</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>2211</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>1230</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
       <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>679</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>122</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>309</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>145</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>56</v>
       </c>
-      <c r="S47" t="n">
-        <v>0</v>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="V47" t="s">
+        <v>32</v>
+      </c>
+      <c r="W47" t="n">
+        <v>27223</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5743</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3435602</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>9866</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>5440.31928888419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" t="n">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="n">
         <v>47</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>14</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>19</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>12</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>2</v>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>1117</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>139</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>508</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>252</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>184</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
       <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>90</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>13</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>39</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>23</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>9</v>
       </c>
-      <c r="S48" t="n">
-        <v>0</v>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="V48" t="s">
+        <v>32</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3512</v>
+      </c>
+      <c r="X48" t="n">
+        <v>572</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>459624</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1077</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>568.578970308538</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" t="n">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="n">
         <v>557</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>158</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>162</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>80</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>46</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>50</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>106043</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>8355</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>29862</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>17188</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>21199</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>23662</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>7897</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>549</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>1517</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>1314</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>1355</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>2788</v>
+      </c>
+      <c r="U49" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="V49" t="s">
+        <v>128</v>
+      </c>
+      <c r="W49" t="n">
+        <v>247140</v>
+      </c>
+      <c r="X49" t="n">
+        <v>4999</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>4265326</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>51208</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>33530.9679708194</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" t="n">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="n">
         <v>132</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>45</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>50</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>33</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>4</v>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>4821</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>685</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>2381</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>1146</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>463</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
       <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>321</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>59</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>139</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>78</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>22</v>
       </c>
-      <c r="S50" t="n">
-        <v>0</v>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="V50" t="s">
+        <v>29</v>
+      </c>
+      <c r="W50" t="n">
+        <v>12070</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1796</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1345847</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>4370</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2677.16166525782</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" t="n">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="n">
         <v>45</v>
-      </c>
-      <c r="C51" t="n">
-        <v>14</v>
       </c>
       <c r="D51" t="n">
         <v>14</v>
       </c>
       <c r="E51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F51" t="n">
         <v>9</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
       </c>
       <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="n">
         <v>7257</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>735</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>2721</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>1849</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>477</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1371</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>557</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>45</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>130</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>149</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>44</v>
       </c>
-      <c r="S51" t="n">
+      <c r="T51" t="n">
         <v>169</v>
+      </c>
+      <c r="U51" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="V51" t="s">
+        <v>77</v>
+      </c>
+      <c r="W51" t="n">
+        <v>18007</v>
+      </c>
+      <c r="X51" t="n">
+        <v>598</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>534004</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>4863</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1898.94511763103</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="n">
+        <v>202</v>
+      </c>
+      <c r="D52" t="n">
+        <v>64</v>
+      </c>
+      <c r="E52" t="n">
         <v>69</v>
       </c>
-      <c r="B52" t="n">
-        <v>202</v>
-      </c>
-      <c r="C52" t="n">
-        <v>64</v>
-      </c>
-      <c r="D52" t="n">
-        <v>69</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>35</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>16</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>11</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>54411</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>3718</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>15066</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>8310</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>6567</v>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>10870</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>2673</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>237</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>635</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>571</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>323</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>744</v>
+      </c>
+      <c r="U52" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="V52" t="s">
+        <v>128</v>
+      </c>
+      <c r="W52" t="n">
+        <v>156086</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1908</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1965744</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>24231</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>9357.77867289927</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" t="n">
+        <v>135</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" t="n">
         <v>116</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>41</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>36</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>15</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>10</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>12</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>29962</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>1024</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>3825</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>1827</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>5443</v>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>16386</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>1792</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>78</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>199</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>127</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>190</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>1169</v>
+      </c>
+      <c r="U53" t="n">
+        <v>9.36</v>
+      </c>
+      <c r="V53" t="s">
+        <v>35</v>
+      </c>
+      <c r="W53" t="n">
+        <v>29383</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1185</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1420021</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>6696</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>8537.8812737743</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" t="n">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="n">
         <v>186</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>62</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>78</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>34</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>8</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>4421</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>686</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>1814</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>1013</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>671</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>4</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>390</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>61</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>169</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>82</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>44</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>3</v>
+      </c>
+      <c r="U54" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="V54" t="s">
+        <v>32</v>
+      </c>
+      <c r="W54" t="n">
+        <v>12817</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3427</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1320995</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>4425</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3110.99475644548</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" t="n">
+        <v>139</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" t="n">
         <v>100</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>43</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>41</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>10</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>4</v>
       </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>8360</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>963</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>3555</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>2145</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>1483</v>
       </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
       <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>491</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>76</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
         <v>243</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="R55" t="n">
         <v>102</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>45</v>
       </c>
-      <c r="S55" t="n">
-        <v>0</v>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="V55" t="s">
+        <v>35</v>
+      </c>
+      <c r="W55" t="n">
+        <v>27507</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1261</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1425981</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>8308</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>3214.33204775993</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" t="n">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="n">
         <v>59</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>24</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>22</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>8</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>4</v>
       </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>5348</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>469</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>1730</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>881</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>594</v>
       </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
       <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
         <v>247</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>38</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>101</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="n">
         <v>51</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>32</v>
       </c>
-      <c r="S56" t="n">
-        <v>0</v>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>9</v>
+      </c>
+      <c r="V56" t="s">
+        <v>35</v>
+      </c>
+      <c r="W56" t="n">
+        <v>13530</v>
+      </c>
+      <c r="X56" t="n">
+        <v>727</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>980190</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>4056</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1777.83624788673</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" t="n">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="n">
         <v>59</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>22</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>24</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>8</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>3</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>11010</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>1027</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>3968</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>1794</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>1578</v>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>2534</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>568</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>60</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>175</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>120</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>67</v>
       </c>
-      <c r="S57" t="n">
+      <c r="T57" t="n">
         <v>135</v>
+      </c>
+      <c r="U57" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="V57" t="s">
+        <v>35</v>
+      </c>
+      <c r="W57" t="n">
+        <v>29436</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1345</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>944070</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>7069</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7766.02187192731</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" t="n">
+        <v>145</v>
+      </c>
+      <c r="B58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" t="n">
         <v>64</v>
-      </c>
-      <c r="C58" t="n">
-        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>28</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>1</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>3391</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>526</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>1726</v>
       </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
         <v>315</v>
       </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
       <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
         <v>187</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>46</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>87</v>
       </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
       <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
         <v>9</v>
       </c>
-      <c r="S58" t="n">
-        <v>0</v>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="V58" t="s">
+        <v>40</v>
+      </c>
+      <c r="W58" t="n">
+        <v>11030</v>
+      </c>
+      <c r="X58" t="n">
+        <v>881</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>901317</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>3383</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1377.21395551564</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" t="n">
+        <v>147</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="n">
         <v>68</v>
-      </c>
-      <c r="C59" t="n">
-        <v>26</v>
       </c>
       <c r="D59" t="n">
         <v>26</v>
       </c>
       <c r="E59" t="n">
+        <v>26</v>
+      </c>
+      <c r="F59" t="n">
         <v>9</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>4</v>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>3854</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>453</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>1767</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>937</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>542</v>
       </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
       <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
         <v>277</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>40</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>127</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>66</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>25</v>
       </c>
-      <c r="S59" t="n">
-        <v>0</v>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>8.72</v>
+      </c>
+      <c r="V59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W59" t="n">
+        <v>13130</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1016</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>674226</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>4119</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1819.46258188926</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" t="n">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="n">
         <v>128</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>48</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>50</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>18</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>8</v>
       </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>9432</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>922</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>3869</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>1881</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>1051</v>
       </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
       <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
         <v>495</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>70</v>
       </c>
-      <c r="P60" t="n">
+      <c r="Q60" t="n">
         <v>224</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>122</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>54</v>
       </c>
-      <c r="S60" t="n">
-        <v>0</v>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="V60" t="s">
+        <v>29</v>
+      </c>
+      <c r="W60" t="n">
+        <v>27795</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2534</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2330588</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>8490</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>2965.85904480135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" t="n">
+        <v>151</v>
+      </c>
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="n">
         <v>113</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>36</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>41</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>20</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
         <v>2</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>8549</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>706</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>1845</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>1078</v>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
       <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>903</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>419</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>58</v>
       </c>
-      <c r="P61" t="n">
+      <c r="Q61" t="n">
         <v>134</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="R61" t="n">
         <v>68</v>
       </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
       <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
         <v>79</v>
+      </c>
+      <c r="U61" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="V61" t="s">
+        <v>29</v>
+      </c>
+      <c r="W61" t="n">
+        <v>12370</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2012</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1138834</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>4611</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3371.57836045175</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" t="n">
+        <v>153</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="n">
         <v>104</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>29</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>37</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>18</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>12</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>2</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>18184</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>1481</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>5224</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>3308</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>4142</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>824</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>943</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>89</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>270</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>213</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>212</v>
       </c>
-      <c r="S62" t="n">
+      <c r="T62" t="n">
         <v>76</v>
+      </c>
+      <c r="U62" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="V62" t="s">
+        <v>77</v>
+      </c>
+      <c r="W62" t="n">
+        <v>43835</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1309</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>872407</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>10335</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>5021.82614380812</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" t="n">
+        <v>155</v>
+      </c>
+      <c r="B63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" t="n">
         <v>159</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>53</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>52</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>43</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>10</v>
       </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>8799</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>1238</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>4208</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>2060</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>1133</v>
       </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
       <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
         <v>527</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>88</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>227</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="R63" t="n">
         <v>131</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>60</v>
       </c>
-      <c r="S63" t="n">
-        <v>0</v>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="V63" t="s">
+        <v>32</v>
+      </c>
+      <c r="W63" t="n">
+        <v>20445</v>
+      </c>
+      <c r="X63" t="n">
+        <v>4501</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3349613</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>8739</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>4579.32421544801</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" t="n">
+        <v>157</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" t="n">
         <v>141</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>45</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>51</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>22</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>17</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>3</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>22471</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>2476</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>9145</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>4536</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>4587</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>602</v>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>1101</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>147</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>403</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>256</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>185</v>
       </c>
-      <c r="S64" t="n">
+      <c r="T64" t="n">
         <v>54</v>
+      </c>
+      <c r="U64" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="V64" t="s">
+        <v>35</v>
+      </c>
+      <c r="W64" t="n">
+        <v>67316</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2574</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2784168</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>17071</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6271.48942043533</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" t="n">
+        <v>159</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="n">
         <v>33</v>
-      </c>
-      <c r="C65" t="n">
-        <v>13</v>
       </c>
       <c r="D65" t="n">
         <v>13</v>
       </c>
       <c r="E65" t="n">
+        <v>13</v>
+      </c>
+      <c r="F65" t="n">
         <v>5</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>2943</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>244</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>940</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>563</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>839</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>272</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>140</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>17</v>
       </c>
-      <c r="P65" t="n">
+      <c r="Q65" t="n">
         <v>50</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="R65" t="n">
         <v>28</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>24</v>
       </c>
-      <c r="S65" t="n">
+      <c r="T65" t="n">
         <v>12</v>
+      </c>
+      <c r="U65" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="V65" t="s">
+        <v>40</v>
+      </c>
+      <c r="W65" t="n">
+        <v>8258</v>
+      </c>
+      <c r="X65" t="n">
+        <v>323</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>236429</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2567</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1306.71376255267</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" t="n">
+        <v>161</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" t="n">
         <v>20</v>
-      </c>
-      <c r="C66" t="n">
-        <v>8</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
       </c>
       <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="n">
         <v>3</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>1</v>
       </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>3669</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>343</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>1129</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>468</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>1664</v>
       </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
       <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>155</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>20</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>60</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="R66" t="n">
         <v>32</v>
       </c>
-      <c r="R66" t="n">
+      <c r="S66" t="n">
         <v>40</v>
       </c>
-      <c r="S66" t="n">
-        <v>0</v>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="V66" t="s">
+        <v>35</v>
+      </c>
+      <c r="W66" t="n">
+        <v>8862</v>
+      </c>
+      <c r="X66" t="n">
+        <v>446</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>286392</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>3477</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>2205.52958579882</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" t="n">
+        <v>163</v>
+      </c>
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" t="n">
         <v>30</v>
-      </c>
-      <c r="C67" t="n">
-        <v>12</v>
       </c>
       <c r="D67" t="n">
         <v>12</v>
       </c>
       <c r="E67" t="n">
+        <v>12</v>
+      </c>
+      <c r="F67" t="n">
         <v>4</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>2</v>
       </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>2882</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>424</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>1494</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>630</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>261</v>
       </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
       <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>185</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>30</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
         <v>79</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>51</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>20</v>
       </c>
-      <c r="S67" t="n">
-        <v>0</v>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="V67" t="s">
+        <v>35</v>
+      </c>
+      <c r="W67" t="n">
+        <v>9697</v>
+      </c>
+      <c r="X67" t="n">
+        <v>290</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>409420</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2516</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>718.724218089603</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" t="n">
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" t="n">
         <v>92</v>
-      </c>
-      <c r="C68" t="n">
-        <v>33</v>
       </c>
       <c r="D68" t="n">
         <v>33</v>
       </c>
       <c r="E68" t="n">
+        <v>33</v>
+      </c>
+      <c r="F68" t="n">
         <v>14</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>7</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>2</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>18907</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>1567</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>5857</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>2864</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>2131</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>352</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>803</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>93</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>294</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>173</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>154</v>
       </c>
-      <c r="S68" t="n">
+      <c r="T68" t="n">
         <v>28</v>
+      </c>
+      <c r="U68" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="V68" t="s">
+        <v>35</v>
+      </c>
+      <c r="W68" t="n">
+        <v>40557</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1890</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1312501</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>10787</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4344.72572499369</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" t="n">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="n">
         <v>103</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>34</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>33</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>28</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>7</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>4330</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>620</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>1612</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>972</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>562</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>468</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>307</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>40</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
         <v>115</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="n">
         <v>71</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>34</v>
       </c>
-      <c r="S69" t="n">
+      <c r="T69" t="n">
         <v>27</v>
+      </c>
+      <c r="U69" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="V69" t="s">
+        <v>32</v>
+      </c>
+      <c r="W69" t="n">
+        <v>10155</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2154</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1906936</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3787</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>2810.37430892673</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" t="n">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="n">
         <v>206</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>64</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>72</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>30</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>23</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>6</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>50389</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>5081</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>19729</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>11157</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>9724</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>2121</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>2362</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>257</v>
       </c>
-      <c r="P70" t="n">
+      <c r="Q70" t="n">
         <v>752</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="R70" t="n">
         <v>629</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>356</v>
       </c>
-      <c r="S70" t="n">
+      <c r="T70" t="n">
         <v>280</v>
+      </c>
+      <c r="U70" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="V70" t="s">
+        <v>77</v>
+      </c>
+      <c r="W70" t="n">
+        <v>122076</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1931</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>784831</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>36334</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>11111.6021202667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" t="n">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" t="n">
         <v>35</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>11</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>12</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>5</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>6</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>6876</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>509</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>1771</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>1136</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>2075</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1261</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>407</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>33</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
         <v>97</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="n">
         <v>92</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>100</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>75</v>
+      </c>
+      <c r="U71" t="n">
+        <v>9.37</v>
+      </c>
+      <c r="V71" t="s">
+        <v>35</v>
+      </c>
+      <c r="W71" t="n">
+        <v>14245</v>
+      </c>
+      <c r="X71" t="n">
+        <v>478</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>458377</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>3814</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>2695.74240543111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" t="n">
         <v>89</v>
       </c>
-      <c r="B72" t="n">
-        <v>89</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>28</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>40</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>19</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>2</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>1598</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>201</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>831</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>362</v>
       </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
         <v>97</v>
       </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
       <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
         <v>152</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>25</v>
       </c>
-      <c r="P72" t="n">
+      <c r="Q72" t="n">
         <v>72</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="R72" t="n">
         <v>34</v>
       </c>
-      <c r="R72" t="n">
+      <c r="S72" t="n">
         <v>7</v>
       </c>
-      <c r="S72" t="n">
-        <v>0</v>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="V72" t="s">
+        <v>32</v>
+      </c>
+      <c r="W72" t="n">
+        <v>6774</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1014</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>829599</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1527</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>916.227533284024</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" t="n">
+        <v>175</v>
+      </c>
+      <c r="B73" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" t="n">
         <v>18</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>8</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>6</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>1</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>2</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>1765</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>222</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>689</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>183</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>286</v>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>355</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>130</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>16</v>
       </c>
-      <c r="P73" t="n">
+      <c r="Q73" t="n">
         <v>41</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="R73" t="n">
         <v>9</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>26</v>
       </c>
-      <c r="S73" t="n">
+      <c r="T73" t="n">
         <v>36</v>
+      </c>
+      <c r="U73" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V73" t="s">
+        <v>77</v>
+      </c>
+      <c r="W73" t="n">
+        <v>8630</v>
+      </c>
+      <c r="X73" t="n">
+        <v>240</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>217479</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1392</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>633.58099112426</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" t="n">
+        <v>177</v>
+      </c>
+      <c r="B74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" t="n">
         <v>170</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>57</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>59</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>39</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>9</v>
       </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>11246</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>1629</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>4386</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>2344</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>1150</v>
       </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
       <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
         <v>611</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>107</v>
       </c>
-      <c r="P74" t="n">
+      <c r="Q74" t="n">
         <v>257</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="R74" t="n">
         <v>140</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>50</v>
       </c>
-      <c r="S74" t="n">
-        <v>0</v>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V74" t="s">
+        <v>29</v>
+      </c>
+      <c r="W74" t="n">
+        <v>25853</v>
+      </c>
+      <c r="X74" t="n">
+        <v>4350</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2114153</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>10090</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>5559.1564217033</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" t="n">
+        <v>179</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="n">
         <v>42</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>15</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>16</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>5</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>3</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>1</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>7099</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>844</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>2921</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>1578</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>1320</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>237</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>388</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>46</v>
       </c>
-      <c r="P75" t="n">
+      <c r="Q75" t="n">
         <v>147</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="R75" t="n">
         <v>99</v>
       </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
         <v>63</v>
       </c>
-      <c r="S75" t="n">
+      <c r="T75" t="n">
         <v>23</v>
+      </c>
+      <c r="U75" t="n">
+        <v>9.39</v>
+      </c>
+      <c r="V75" t="s">
+        <v>35</v>
+      </c>
+      <c r="W75" t="n">
+        <v>21709</v>
+      </c>
+      <c r="X75" t="n">
+        <v>807</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>527641</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>5623</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>2589.4510249366</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" t="n">
+        <v>181</v>
+      </c>
+      <c r="B76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" t="n">
         <v>30</v>
-      </c>
-      <c r="C76" t="n">
-        <v>11</v>
       </c>
       <c r="D76" t="n">
         <v>11</v>
       </c>
       <c r="E76" t="n">
+        <v>11</v>
+      </c>
+      <c r="F76" t="n">
         <v>4</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>2</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>10763</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>524</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>2392</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>851</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>743</v>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>3282</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>451</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>32</v>
       </c>
-      <c r="P76" t="n">
+      <c r="Q76" t="n">
         <v>99</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="R76" t="n">
         <v>40</v>
       </c>
-      <c r="R76" t="n">
+      <c r="S76" t="n">
         <v>21</v>
       </c>
-      <c r="S76" t="n">
+      <c r="T76" t="n">
         <v>230</v>
+      </c>
+      <c r="U76" t="n">
+        <v>9.55</v>
+      </c>
+      <c r="V76" t="s">
+        <v>35</v>
+      </c>
+      <c r="W76" t="n">
+        <v>15831</v>
+      </c>
+      <c r="X76" t="n">
+        <v>523</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>305432</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>4288</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>5466.94915358011</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" t="n">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" t="n">
         <v>199</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>70</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>66</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>28</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>17</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>9</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>39661</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>3099</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>10935</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>6137</v>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>3740</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>7272</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>1952</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>198</v>
       </c>
-      <c r="P77" t="n">
+      <c r="Q77" t="n">
         <v>516</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="R77" t="n">
         <v>399</v>
       </c>
-      <c r="R77" t="n">
+      <c r="S77" t="n">
         <v>207</v>
       </c>
-      <c r="S77" t="n">
+      <c r="T77" t="n">
         <v>515</v>
+      </c>
+      <c r="U77" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="V77" t="s">
+        <v>77</v>
+      </c>
+      <c r="W77" t="n">
+        <v>88186</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2281</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2473764</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>18964</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>13234.2170845496</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" t="n">
+        <v>316</v>
+      </c>
+      <c r="D78" t="n">
         <v>95</v>
       </c>
-      <c r="B78" t="n">
-        <v>316</v>
-      </c>
-      <c r="C78" t="n">
-        <v>95</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>107</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>45</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>29</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>15</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>57091</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>4893</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>18358</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>10188</v>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>9883</v>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>11347</v>
       </c>
-      <c r="N78" t="n">
+      <c r="O78" t="n">
         <v>3167</v>
       </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
         <v>294</v>
       </c>
-      <c r="P78" t="n">
+      <c r="Q78" t="n">
         <v>838</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="R78" t="n">
         <v>604</v>
       </c>
-      <c r="R78" t="n">
+      <c r="S78" t="n">
         <v>561</v>
       </c>
-      <c r="S78" t="n">
+      <c r="T78" t="n">
         <v>711</v>
+      </c>
+      <c r="U78" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="V78" t="s">
+        <v>35</v>
+      </c>
+      <c r="W78" t="n">
+        <v>125514</v>
+      </c>
+      <c r="X78" t="n">
+        <v>5778</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>4091612</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>30643</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>19105.3815467589</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" t="n">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" t="n">
         <v>88</v>
-      </c>
-      <c r="C79" t="n">
-        <v>34</v>
       </c>
       <c r="D79" t="n">
         <v>34</v>
       </c>
       <c r="E79" t="n">
+        <v>34</v>
+      </c>
+      <c r="F79" t="n">
         <v>12</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>6</v>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>5009</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>844</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>2030</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>1136</v>
       </c>
-      <c r="L79" t="n">
+      <c r="M79" t="n">
         <v>851</v>
       </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
       <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
         <v>345</v>
       </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
         <v>63</v>
       </c>
-      <c r="P79" t="n">
+      <c r="Q79" t="n">
         <v>159</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="R79" t="n">
         <v>72</v>
       </c>
-      <c r="R79" t="n">
+      <c r="S79" t="n">
         <v>35</v>
       </c>
-      <c r="S79" t="n">
-        <v>0</v>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="V79" t="s">
+        <v>32</v>
+      </c>
+      <c r="W79" t="n">
+        <v>12628</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3132</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1442367</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>5878</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3242.10015585376</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" t="n">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="n">
         <v>52</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>14</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>20</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>12</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>6</v>
       </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>1474</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>209</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>624</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>333</v>
       </c>
-      <c r="L80" t="n">
+      <c r="M80" t="n">
         <v>245</v>
       </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
       <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
         <v>126</v>
       </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
         <v>17</v>
       </c>
-      <c r="P80" t="n">
+      <c r="Q80" t="n">
         <v>47</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="R80" t="n">
         <v>33</v>
       </c>
-      <c r="R80" t="n">
+      <c r="S80" t="n">
         <v>22</v>
       </c>
-      <c r="S80" t="n">
-        <v>0</v>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>8</v>
+      </c>
+      <c r="V80" t="s">
+        <v>40</v>
+      </c>
+      <c r="W80" t="n">
+        <v>5398</v>
+      </c>
+      <c r="X80" t="n">
+        <v>544</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>605392</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1626</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>847.998547125951</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" t="n">
+        <v>191</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="n">
         <v>87</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>30</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>31</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>17</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>5</v>
       </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>6847</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>1137</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>2894</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>1443</v>
       </c>
-      <c r="L81" t="n">
+      <c r="M81" t="n">
         <v>995</v>
       </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
       <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
         <v>414</v>
       </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
         <v>75</v>
       </c>
-      <c r="P81" t="n">
+      <c r="Q81" t="n">
         <v>196</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="R81" t="n">
         <v>82</v>
       </c>
-      <c r="R81" t="n">
+      <c r="S81" t="n">
         <v>34</v>
       </c>
-      <c r="S81" t="n">
-        <v>0</v>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="V81" t="s">
+        <v>32</v>
+      </c>
+      <c r="W81" t="n">
+        <v>17297</v>
+      </c>
+      <c r="X81" t="n">
+        <v>4300</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1159037</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>7128</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>4307.20062869823</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" t="n">
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" t="n">
         <v>85</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>27</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>29</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>15</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>8</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>2</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>14818</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>1128</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>4152</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>1779</v>
       </c>
-      <c r="L82" t="n">
+      <c r="M82" t="n">
         <v>1880</v>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>2421</v>
       </c>
-      <c r="N82" t="n">
+      <c r="O82" t="n">
         <v>600</v>
       </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
         <v>60</v>
       </c>
-      <c r="P82" t="n">
+      <c r="Q82" t="n">
         <v>179</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="R82" t="n">
         <v>110</v>
       </c>
-      <c r="R82" t="n">
+      <c r="S82" t="n">
         <v>67</v>
       </c>
-      <c r="S82" t="n">
+      <c r="T82" t="n">
         <v>139</v>
+      </c>
+      <c r="U82" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="V82" t="s">
+        <v>40</v>
+      </c>
+      <c r="W82" t="n">
+        <v>27800</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1891</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1579050</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>7501</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>7394.70761506005</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" t="n">
+        <v>195</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="n">
         <v>30</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>10</v>
-      </c>
-      <c r="D83" t="n">
-        <v>7</v>
       </c>
       <c r="E83" t="n">
         <v>7</v>
       </c>
       <c r="F83" t="n">
+        <v>7</v>
+      </c>
+      <c r="G83" t="n">
         <v>4</v>
       </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>4690</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>553</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>1978</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>1247</v>
       </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
         <v>710</v>
       </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
       <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
         <v>252</v>
       </c>
-      <c r="O83" t="n">
+      <c r="P83" t="n">
         <v>31</v>
       </c>
-      <c r="P83" t="n">
+      <c r="Q83" t="n">
         <v>89</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="R83" t="n">
         <v>77</v>
       </c>
-      <c r="R83" t="n">
+      <c r="S83" t="n">
         <v>37</v>
       </c>
-      <c r="S83" t="n">
-        <v>0</v>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="V83" t="s">
+        <v>35</v>
+      </c>
+      <c r="W83" t="n">
+        <v>16221</v>
+      </c>
+      <c r="X83" t="n">
+        <v>548</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>569769</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>1152.45595150042</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" t="n">
+        <v>197</v>
+      </c>
+      <c r="B84" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" t="n">
         <v>95</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>37</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>36</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>14</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>7</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>15251</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>1308</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>5038</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>2631</v>
       </c>
-      <c r="L84" t="n">
+      <c r="M84" t="n">
         <v>1595</v>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>4598</v>
       </c>
-      <c r="N84" t="n">
+      <c r="O84" t="n">
         <v>837</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>83</v>
       </c>
-      <c r="P84" t="n">
+      <c r="Q84" t="n">
         <v>248</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="R84" t="n">
         <v>126</v>
       </c>
-      <c r="R84" t="n">
+      <c r="S84" t="n">
         <v>66</v>
       </c>
-      <c r="S84" t="n">
+      <c r="T84" t="n">
         <v>302</v>
+      </c>
+      <c r="U84" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="V84" t="s">
+        <v>77</v>
+      </c>
+      <c r="W84" t="n">
+        <v>43955</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1214</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>840928</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>9883</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>8753.61229932952</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85" t="n">
+        <v>199</v>
+      </c>
+      <c r="B85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" t="n">
         <v>203</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>71</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>82</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>28</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>15</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>13803</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>1246</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>4334</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>2355</v>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
         <v>2217</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>914</v>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
         <v>762</v>
       </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
         <v>92</v>
       </c>
-      <c r="P85" t="n">
+      <c r="Q85" t="n">
         <v>260</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="R85" t="n">
         <v>164</v>
       </c>
-      <c r="R85" t="n">
+      <c r="S85" t="n">
         <v>112</v>
       </c>
-      <c r="S85" t="n">
+      <c r="T85" t="n">
         <v>83</v>
+      </c>
+      <c r="U85" t="n">
+        <v>8.78</v>
+      </c>
+      <c r="V85" t="s">
+        <v>40</v>
+      </c>
+      <c r="W85" t="n">
+        <v>29306</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1693</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2119944</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>9811</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>4687.38952018978</v>
       </c>
     </row>
   </sheetData>
